--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.21</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>28.59</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>28.59</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.16</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.03</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6763</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002232</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.69</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.16</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.03</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2497,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6915</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.76</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.69</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.16</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3037,14 +3124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.01</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3053,14 +3162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.03</v>
       </c>
     </row>
     <row r="7">
@@ -3069,13 +3200,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>10.76</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>12.69</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>3.16</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.01</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2824</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3123,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3400,176 +4575,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5846</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3461</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3644,22 +4649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6445</t>
+          <t>1.5846</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3682,26 +4687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.3461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3720,22 +4725,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3748,6 +4753,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603181-皇马科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>10.31</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>10.76</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>12.69</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>3.16</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.01</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -616,7 +633,1373 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方高增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方积极配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +3157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2704,7 +4087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3368,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4298,7 +5681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4575,176 +5958,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5846</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160105</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方积极配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3461</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4819,22 +6032,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6445</t>
+          <t>1.5846</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4857,26 +6070,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.3461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4895,22 +6108,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4928,53 +6141,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4989,30 +6202,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.82</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7793</t>
+          <t>1.6445</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -5027,22 +6240,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3611</t>
+          <t>0.3136</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -5050,7 +6263,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -5065,143 +6278,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010661</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>